--- a/bip8013_opt_data.xlsx
+++ b/bip8013_opt_data.xlsx
@@ -244,11 +244,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2728,7 +2728,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="L31" sqref="L31:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,13 +3873,13 @@
       <c r="J36">
         <v>2516.7070889100542</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3912,19 +3912,19 @@
       <c r="J37">
         <v>-943.16665669690542</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <f>(M34-N34)/N34</f>
         <v>-1.4628789418769935E-2</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <f>(M34-O34)/O34</f>
         <v>-1.4819198189072038E-2</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="4">
         <f>(M34-P34)/P34</f>
         <v>-1.6983850831737504E-2</v>
       </c>
@@ -3942,19 +3942,19 @@
       <c r="F38">
         <v>811.97969712959537</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <f>(N34-M34)/M34</f>
         <v>1.4845967957741542E-2</v>
       </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
         <f>(N34-O34)/O34</f>
         <v>-1.9323557280488113E-4</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="4">
         <f>(N34-P34)/P34</f>
         <v>-2.3900245792429992E-3</v>
       </c>
@@ -3972,19 +3972,19 @@
       <c r="F39">
         <v>811.97969712959537</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <f>(O34-M34)/M34</f>
         <v>1.5042110201327371E-2</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <f>(O34-N34)/N34</f>
         <v>1.932729200082866E-4</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4">
         <f>(O34-P34)/P34</f>
         <v>-2.1972135862640347E-3</v>
       </c>
@@ -4002,22 +4002,22 @@
       <c r="F40">
         <v>811.97969712959537</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f>(P34-M34)/M34</f>
         <v>1.7277285674408983E-2</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <f>(P34-N34)/N34</f>
         <v>2.3957504817801872E-3</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="4">
         <f>(P34-O34)/O34</f>
         <v>2.2020519647586614E-3</v>
       </c>
-      <c r="P40" s="4"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -4053,76 +4053,76 @@
       <c r="F42">
         <v>811.97969712959537</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="5">
+      <c r="M42" s="3"/>
+      <c r="N42" s="4">
         <f>(M33-N33)/N33</f>
         <v>-3.4081741049799955E-3</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <f>(M33-O33)/O33</f>
         <v>-3.191136976588954E-3</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="4">
         <f>(M33-P33)/P33</f>
         <v>-6.2933038755213578E-3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="4">
         <f>(N33-M33)/M33</f>
         <v>3.4198294792546387E-3</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="5">
+      <c r="N43" s="3"/>
+      <c r="O43" s="4">
         <f>(N33-O33)/O33</f>
         <v>2.1777935836080623E-4</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="4">
         <f>(N33-P33)/P33</f>
         <v>-2.8949964223821349E-3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <f>(O33-M33)/M33</f>
         <v>3.2013529323063482E-3</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <f>(O33-N33)/N33</f>
         <v>-2.1773194083843578E-4</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="5">
+      <c r="O44" s="3"/>
+      <c r="P44" s="4">
         <f>(O33-P33)/P33</f>
         <v>-3.1120980300308053E-3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <f>(P33-M33)/M33</f>
         <v>6.3331603782742496E-3</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <f>(P33-N33)/N33</f>
         <v>2.9034017600903343E-3</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="4">
         <f>(P33-O33)/O33</f>
         <v>3.1218134194235169E-3</v>
       </c>
-      <c r="P45" s="4"/>
+      <c r="P45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
